--- a/docs/reference/my_precious.xlsx
+++ b/docs/reference/my_precious.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
   <si>
     <t xml:space="preserve">exclude</t>
   </si>
@@ -1850,6 +1850,15 @@
   </si>
   <si>
     <t xml:space="preserve">prof-dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited participant to Dagstuhl Seminaro on *Transparent Quantitative Research as a User Interface Problem*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Schloss Dagstuhl](https://www.dagstuhl.de), Germany</t>
   </si>
   <si>
     <t xml:space="preserve">Invited participant to the Global Dialogue for Happiness</t>
@@ -8436,19 +8445,19 @@
       </c>
       <c r="C94"/>
       <c r="D94" s="1" t="n">
-        <v>43142</v>
+        <v>44859</v>
       </c>
       <c r="E94" t="s">
-        <v>322</v>
+        <v>576</v>
       </c>
       <c r="F94" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K94"/>
       <c r="L94" t="s">
@@ -8457,9 +8466,7 @@
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
-      <c r="P94" t="s">
-        <v>106</v>
-      </c>
+      <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
       <c r="S94"/>
@@ -8476,10 +8483,10 @@
       </c>
       <c r="C95"/>
       <c r="D95" s="1" t="n">
-        <v>42767</v>
+        <v>43142</v>
       </c>
       <c r="E95" t="s">
-        <v>578</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
         <v>579</v>
@@ -8512,25 +8519,23 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C96"/>
       <c r="D96" s="1" t="n">
-        <v>44313</v>
+        <v>42767</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>581</v>
       </c>
       <c r="F96" t="s">
         <v>582</v>
       </c>
-      <c r="G96" t="s">
-        <v>583</v>
-      </c>
+      <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K96"/>
       <c r="L96" t="s">
@@ -8539,7 +8544,9 @@
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
-      <c r="P96"/>
+      <c r="P96" t="s">
+        <v>106</v>
+      </c>
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96"/>
@@ -8552,11 +8559,11 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C97"/>
       <c r="D97" s="1" t="n">
-        <v>43396</v>
+        <v>44313</v>
       </c>
       <c r="E97" t="s">
         <v>322</v>
@@ -8564,11 +8571,13 @@
       <c r="F97" t="s">
         <v>585</v>
       </c>
-      <c r="G97"/>
+      <c r="G97" t="s">
+        <v>586</v>
+      </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K97"/>
       <c r="L97" t="s">
@@ -8577,9 +8586,7 @@
       <c r="M97"/>
       <c r="N97"/>
       <c r="O97"/>
-      <c r="P97" t="s">
-        <v>106</v>
-      </c>
+      <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
       <c r="S97"/>
@@ -8592,14 +8599,14 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C98"/>
       <c r="D98" s="1" t="n">
-        <v>44013</v>
+        <v>43396</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F98" t="s">
         <v>588</v>
@@ -8617,7 +8624,9 @@
       <c r="M98"/>
       <c r="N98"/>
       <c r="O98"/>
-      <c r="P98"/>
+      <c r="P98" t="s">
+        <v>106</v>
+      </c>
       <c r="Q98"/>
       <c r="R98"/>
       <c r="S98"/>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" s="1" t="n">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="E99" t="s">
         <v>319</v>
@@ -8648,9 +8657,7 @@
       <c r="J99" t="s">
         <v>592</v>
       </c>
-      <c r="K99" t="s">
-        <v>593</v>
-      </c>
+      <c r="K99"/>
       <c r="L99" t="s">
         <v>322</v>
       </c>
@@ -8660,28 +8667,24 @@
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
-      <c r="S99" t="s">
-        <v>106</v>
-      </c>
+      <c r="S99"/>
       <c r="T99"/>
       <c r="U99"/>
-      <c r="V99" t="s">
-        <v>106</v>
-      </c>
+      <c r="V99"/>
       <c r="W99"/>
       <c r="X99"/>
     </row>
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C100"/>
       <c r="D100" s="1" t="n">
-        <v>43739</v>
+        <v>43862</v>
       </c>
       <c r="E100" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="F100" t="s">
         <v>594</v>
@@ -8704,7 +8707,9 @@
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
-      <c r="S100"/>
+      <c r="S100" t="s">
+        <v>106</v>
+      </c>
       <c r="T100"/>
       <c r="U100"/>
       <c r="V100" t="s">
@@ -8716,14 +8721,14 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C101"/>
       <c r="D101" s="1" t="n">
-        <v>43537</v>
+        <v>43739</v>
       </c>
       <c r="E101" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="F101" t="s">
         <v>597</v>
@@ -8743,22 +8748,14 @@
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101"/>
-      <c r="P101" t="s">
-        <v>364</v>
-      </c>
+      <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
-      <c r="S101" t="s">
-        <v>106</v>
-      </c>
-      <c r="T101" t="s">
-        <v>364</v>
-      </c>
-      <c r="U101" t="s">
-        <v>364</v>
-      </c>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
       <c r="V101" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
       <c r="W101"/>
       <c r="X101"/>
@@ -8766,26 +8763,26 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C102"/>
       <c r="D102" s="1" t="n">
-        <v>42917</v>
+        <v>43537</v>
       </c>
       <c r="E102" t="s">
+        <v>322</v>
+      </c>
+      <c r="F102" t="s">
         <v>600</v>
-      </c>
-      <c r="F102" t="s">
-        <v>601</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
+        <v>601</v>
+      </c>
+      <c r="K102" t="s">
         <v>602</v>
-      </c>
-      <c r="K102" t="s">
-        <v>603</v>
       </c>
       <c r="L102" t="s">
         <v>322</v>
@@ -8794,17 +8791,21 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102" t="s">
+        <v>106</v>
+      </c>
+      <c r="T102" t="s">
         <v>364</v>
       </c>
-      <c r="T102"/>
-      <c r="U102"/>
+      <c r="U102" t="s">
+        <v>364</v>
+      </c>
       <c r="V102" t="s">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="W102"/>
       <c r="X102"/>
@@ -8812,104 +8813,108 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="1" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="E103" t="s">
+        <v>603</v>
+      </c>
+      <c r="F103" t="s">
         <v>604</v>
-      </c>
-      <c r="F103" t="s">
-        <v>605</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>360</v>
-      </c>
-      <c r="K103"/>
+        <v>605</v>
+      </c>
+      <c r="K103" t="s">
+        <v>606</v>
+      </c>
       <c r="L103" t="s">
         <v>322</v>
       </c>
       <c r="M103"/>
       <c r="N103"/>
       <c r="O103"/>
-      <c r="P103"/>
+      <c r="P103" t="s">
+        <v>106</v>
+      </c>
       <c r="Q103"/>
       <c r="R103"/>
-      <c r="S103"/>
+      <c r="S103" t="s">
+        <v>364</v>
+      </c>
       <c r="T103"/>
       <c r="U103"/>
-      <c r="V103"/>
+      <c r="V103" t="s">
+        <v>106</v>
+      </c>
       <c r="W103"/>
       <c r="X103"/>
     </row>
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C104"/>
       <c r="D104" s="1" t="n">
-        <v>41548</v>
+        <v>42856</v>
       </c>
       <c r="E104" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F104" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>608</v>
-      </c>
-      <c r="K104" t="s">
-        <v>609</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="K104"/>
       <c r="L104" t="s">
         <v>322</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
-      <c r="P104" t="s">
-        <v>106</v>
-      </c>
+      <c r="P104"/>
       <c r="Q104"/>
       <c r="R104"/>
-      <c r="S104" t="s">
-        <v>106</v>
-      </c>
+      <c r="S104"/>
       <c r="T104"/>
       <c r="U104"/>
-      <c r="V104" t="s">
-        <v>106</v>
-      </c>
+      <c r="V104"/>
       <c r="W104"/>
       <c r="X104"/>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" s="1" t="n">
+        <v>41548</v>
+      </c>
+      <c r="E105" t="s">
+        <v>609</v>
+      </c>
+      <c r="F105" t="s">
         <v>610</v>
-      </c>
-      <c r="C105"/>
-      <c r="D105" s="1"/>
-      <c r="E105" t="s">
-        <v>322</v>
-      </c>
-      <c r="F105" t="s">
-        <v>611</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105"/>
+      <c r="J105" t="s">
+        <v>611</v>
+      </c>
       <c r="K105" t="s">
         <v>612</v>
       </c>
@@ -8924,17 +8929,21 @@
       </c>
       <c r="Q105"/>
       <c r="R105"/>
-      <c r="S105"/>
+      <c r="S105" t="s">
+        <v>106</v>
+      </c>
       <c r="T105"/>
       <c r="U105"/>
-      <c r="V105"/>
+      <c r="V105" t="s">
+        <v>106</v>
+      </c>
       <c r="W105"/>
       <c r="X105"/>
     </row>
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C106"/>
       <c r="D106" s="1"/>
@@ -8942,14 +8951,14 @@
         <v>322</v>
       </c>
       <c r="F106" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L106" t="s">
         <v>322</v>
@@ -8972,7 +8981,7 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C107"/>
       <c r="D107" s="1"/>
@@ -8980,14 +8989,14 @@
         <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L107" t="s">
         <v>322</v>
@@ -9010,14 +9019,12 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C108"/>
-      <c r="D108" s="1" t="n">
-        <v>42767</v>
-      </c>
+      <c r="D108" s="1"/>
       <c r="E108" t="s">
-        <v>600</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
         <v>618</v>
@@ -9025,9 +9032,7 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" t="s">
-        <v>74</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="s">
         <v>619</v>
       </c>
@@ -9037,14 +9042,12 @@
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108" t="n">
-        <v>2</v>
-      </c>
+      <c r="P108" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q108"/>
       <c r="R108"/>
-      <c r="S108" t="s">
-        <v>106</v>
-      </c>
+      <c r="S108"/>
       <c r="T108"/>
       <c r="U108"/>
       <c r="V108"/>
@@ -9054,23 +9057,23 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C109"/>
       <c r="D109" s="1" t="n">
-        <v>42855</v>
+        <v>42767</v>
       </c>
       <c r="E109" t="s">
-        <v>319</v>
+        <v>603</v>
       </c>
       <c r="F109" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>621</v>
+        <v>74</v>
       </c>
       <c r="K109" t="s">
         <v>622</v>
@@ -9083,11 +9086,9 @@
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109" t="n">
-        <v>1</v>
-      </c>
-      <c r="R109" t="s">
-        <v>364</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R109"/>
       <c r="S109" t="s">
         <v>106</v>
       </c>
@@ -9100,26 +9101,26 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C110"/>
       <c r="D110" s="1" t="n">
-        <v>41548</v>
+        <v>42855</v>
       </c>
       <c r="E110" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" t="s">
         <v>623</v>
-      </c>
-      <c r="F110" t="s">
-        <v>624</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
+        <v>624</v>
+      </c>
+      <c r="K110" t="s">
         <v>625</v>
-      </c>
-      <c r="K110" t="s">
-        <v>626</v>
       </c>
       <c r="L110" t="s">
         <v>322</v>
@@ -9129,7 +9130,7 @@
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R110" t="s">
         <v>364</v>
@@ -9146,14 +9147,14 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C111"/>
       <c r="D111" s="1" t="n">
-        <v>42767</v>
+        <v>41548</v>
       </c>
       <c r="E111" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F111" t="s">
         <v>627</v>
@@ -9164,7 +9165,9 @@
       <c r="J111" t="s">
         <v>628</v>
       </c>
-      <c r="K111"/>
+      <c r="K111" t="s">
+        <v>629</v>
+      </c>
       <c r="L111" t="s">
         <v>322</v>
       </c>
@@ -9173,12 +9176,14 @@
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R111" t="s">
         <v>364</v>
       </c>
-      <c r="S111"/>
+      <c r="S111" t="s">
+        <v>106</v>
+      </c>
       <c r="T111"/>
       <c r="U111"/>
       <c r="V111"/>
@@ -9188,14 +9193,14 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C112"/>
       <c r="D112" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="E112" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="F112" t="s">
         <v>630</v>
@@ -9215,7 +9220,7 @@
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R112" t="s">
         <v>364</v>
@@ -9228,18 +9233,16 @@
       <c r="X112"/>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>106</v>
-      </c>
+      <c r="A113"/>
       <c r="B113" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C113"/>
       <c r="D113" s="1" t="n">
-        <v>44462</v>
+        <v>42736</v>
       </c>
       <c r="E113" t="s">
-        <v>322</v>
+        <v>632</v>
       </c>
       <c r="F113" t="s">
         <v>633</v>
@@ -9250,9 +9253,7 @@
       <c r="J113" t="s">
         <v>634</v>
       </c>
-      <c r="K113" t="s">
-        <v>635</v>
-      </c>
+      <c r="K113"/>
       <c r="L113" t="s">
         <v>322</v>
       </c>
@@ -9260,8 +9261,12 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
-      <c r="Q113"/>
-      <c r="R113"/>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="s">
+        <v>364</v>
+      </c>
       <c r="S113"/>
       <c r="T113"/>
       <c r="U113"/>
@@ -9274,26 +9279,26 @@
         <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C114"/>
       <c r="D114" s="1" t="n">
-        <v>43862</v>
+        <v>44462</v>
       </c>
       <c r="E114" t="s">
+        <v>322</v>
+      </c>
+      <c r="F114" t="s">
         <v>636</v>
-      </c>
-      <c r="F114" t="s">
-        <v>637</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
+        <v>637</v>
+      </c>
+      <c r="K114" t="s">
         <v>638</v>
-      </c>
-      <c r="K114" t="s">
-        <v>639</v>
       </c>
       <c r="L114" t="s">
         <v>322</v>
@@ -9307,41 +9312,35 @@
       <c r="S114"/>
       <c r="T114"/>
       <c r="U114"/>
-      <c r="V114" t="s">
-        <v>106</v>
-      </c>
-      <c r="W114" t="s">
-        <v>106</v>
-      </c>
-      <c r="X114" t="s">
-        <v>640</v>
-      </c>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C115"/>
       <c r="D115" s="1" t="n">
-        <v>43537</v>
+        <v>43862</v>
       </c>
       <c r="E115" t="s">
-        <v>322</v>
+        <v>639</v>
       </c>
       <c r="F115" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
+        <v>641</v>
+      </c>
+      <c r="K115" t="s">
         <v>642</v>
-      </c>
-      <c r="K115" t="s">
-        <v>643</v>
       </c>
       <c r="L115" t="s">
         <v>322</v>
@@ -9349,9 +9348,7 @@
       <c r="M115"/>
       <c r="N115"/>
       <c r="O115"/>
-      <c r="P115" t="s">
-        <v>364</v>
-      </c>
+      <c r="P115"/>
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115"/>
@@ -9363,31 +9360,35 @@
       <c r="W115" t="s">
         <v>106</v>
       </c>
-      <c r="X115"/>
+      <c r="X115" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116"/>
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
       <c r="B116" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C116"/>
       <c r="D116" s="1" t="n">
-        <v>41487</v>
+        <v>43537</v>
       </c>
       <c r="E116" t="s">
+        <v>322</v>
+      </c>
+      <c r="F116" t="s">
         <v>644</v>
-      </c>
-      <c r="F116" t="s">
-        <v>645</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
+        <v>645</v>
+      </c>
+      <c r="K116" t="s">
         <v>646</v>
-      </c>
-      <c r="K116" t="s">
-        <v>647</v>
       </c>
       <c r="L116" t="s">
         <v>322</v>
@@ -9395,13 +9396,17 @@
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116"/>
-      <c r="P116"/>
+      <c r="P116" t="s">
+        <v>364</v>
+      </c>
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116"/>
       <c r="T116"/>
       <c r="U116"/>
-      <c r="V116"/>
+      <c r="V116" t="s">
+        <v>106</v>
+      </c>
       <c r="W116" t="s">
         <v>106</v>
       </c>
@@ -9410,14 +9415,14 @@
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C117"/>
       <c r="D117" s="1" t="n">
-        <v>40422</v>
+        <v>41487</v>
       </c>
       <c r="E117" t="s">
-        <v>341</v>
+        <v>647</v>
       </c>
       <c r="F117" t="s">
         <v>648</v>
@@ -9426,10 +9431,10 @@
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>418</v>
+        <v>649</v>
       </c>
       <c r="K117" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L117" t="s">
         <v>322</v>
@@ -9452,14 +9457,14 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C118"/>
       <c r="D118" s="1" t="n">
-        <v>43709</v>
+        <v>40422</v>
       </c>
       <c r="E118" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="F118" t="s">
         <v>651</v>
@@ -9468,15 +9473,15 @@
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
+        <v>418</v>
+      </c>
+      <c r="K118" t="s">
         <v>652</v>
       </c>
-      <c r="K118"/>
       <c r="L118" t="s">
         <v>322</v>
       </c>
-      <c r="M118" t="s">
-        <v>653</v>
-      </c>
+      <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
@@ -9486,17 +9491,19 @@
       <c r="T118"/>
       <c r="U118"/>
       <c r="V118"/>
-      <c r="W118"/>
+      <c r="W118" t="s">
+        <v>106</v>
+      </c>
       <c r="X118"/>
     </row>
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C119"/>
       <c r="D119" s="1" t="n">
-        <v>44531</v>
+        <v>43709</v>
       </c>
       <c r="E119" t="s">
         <v>319</v>
@@ -9532,11 +9539,11 @@
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C120"/>
       <c r="D120" s="1" t="n">
-        <v>43800</v>
+        <v>44531</v>
       </c>
       <c r="E120" t="s">
         <v>319</v>
@@ -9572,7 +9579,7 @@
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C121"/>
       <c r="D121" s="1" t="n">
@@ -9612,30 +9619,30 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C122"/>
       <c r="D122" s="1" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="E122" t="s">
         <v>319</v>
       </c>
       <c r="F122" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K122"/>
       <c r="L122" t="s">
         <v>322</v>
       </c>
       <c r="M122" t="s">
-        <v>283</v>
+        <v>665</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -9652,14 +9659,14 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C123"/>
       <c r="D123" s="1" t="n">
-        <v>43252</v>
+        <v>43739</v>
       </c>
       <c r="E123" t="s">
-        <v>666</v>
+        <v>319</v>
       </c>
       <c r="F123" t="s">
         <v>667</v>
@@ -9674,7 +9681,9 @@
       <c r="L123" t="s">
         <v>322</v>
       </c>
-      <c r="M123"/>
+      <c r="M123" t="s">
+        <v>283</v>
+      </c>
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
@@ -9690,31 +9699,29 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C124"/>
       <c r="D124" s="1" t="n">
-        <v>43647</v>
+        <v>43252</v>
       </c>
       <c r="E124" t="s">
-        <v>319</v>
+        <v>669</v>
       </c>
       <c r="F124" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K124"/>
       <c r="L124" t="s">
         <v>322</v>
       </c>
-      <c r="M124" t="s">
-        <v>671</v>
-      </c>
+      <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
@@ -9730,27 +9737,31 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
+        <v>666</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="E125" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" t="s">
         <v>672</v>
-      </c>
-      <c r="C125"/>
-      <c r="D125" s="1"/>
-      <c r="E125" t="s">
-        <v>322</v>
-      </c>
-      <c r="F125" t="s">
-        <v>673</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125" t="s">
-        <v>32</v>
-      </c>
+      <c r="J125" t="s">
+        <v>673</v>
+      </c>
+      <c r="K125"/>
       <c r="L125" t="s">
         <v>322</v>
       </c>
-      <c r="M125"/>
+      <c r="M125" t="s">
+        <v>674</v>
+      </c>
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
@@ -9766,7 +9777,7 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C126"/>
       <c r="D126" s="1"/>
@@ -9774,14 +9785,14 @@
         <v>322</v>
       </c>
       <c r="F126" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L126" t="s">
         <v>322</v>
@@ -9802,7 +9813,7 @@
     <row r="127">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C127"/>
       <c r="D127" s="1"/>
@@ -9810,14 +9821,14 @@
         <v>322</v>
       </c>
       <c r="F127" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L127" t="s">
         <v>322</v>
@@ -9838,7 +9849,7 @@
     <row r="128">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C128"/>
       <c r="D128" s="1"/>
@@ -9846,14 +9857,14 @@
         <v>322</v>
       </c>
       <c r="F128" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="L128" t="s">
         <v>322</v>
@@ -9874,7 +9885,7 @@
     <row r="129">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C129"/>
       <c r="D129" s="1"/>
@@ -9882,14 +9893,14 @@
         <v>322</v>
       </c>
       <c r="F129" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="L129" t="s">
         <v>322</v>
@@ -9910,7 +9921,7 @@
     <row r="130">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C130"/>
       <c r="D130" s="1"/>
@@ -9918,14 +9929,14 @@
         <v>322</v>
       </c>
       <c r="F130" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L130" t="s">
         <v>322</v>
@@ -9943,6 +9954,42 @@
       <c r="W130"/>
       <c r="X130"/>
     </row>
+    <row r="131">
+      <c r="A131"/>
+      <c r="B131" t="s">
+        <v>675</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" s="1"/>
+      <c r="E131" t="s">
+        <v>322</v>
+      </c>
+      <c r="F131" t="s">
+        <v>681</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131" t="s">
+        <v>178</v>
+      </c>
+      <c r="L131" t="s">
+        <v>322</v>
+      </c>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
